--- a/exel/stagiaire.xlsx
+++ b/exel/stagiaire.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="212">
   <si>
     <t xml:space="preserve"> Martin</t>
   </si>
@@ -32,10 +32,6 @@
     <t>Robert</t>
   </si>
   <si>
-    <t xml:space="preserve">
-34 av Charles de Gaulle</t>
-  </si>
-  <si>
     <t>Châteauroux</t>
   </si>
   <si>
@@ -63,12 +59,6 @@
     <t>28 AV marcel lemoine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lubéra</t>
-  </si>
-  <si>
-    <t>BENOIT</t>
-  </si>
-  <si>
     <t>rte villiers</t>
   </si>
   <si>
@@ -120,27 +110,18 @@
     <t>49 r rochette</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fruchon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Christophe </t>
   </si>
   <si>
     <t>154,av de la chatre</t>
   </si>
   <si>
-    <t xml:space="preserve"> Leroy</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
     <t>222,Avenue Marcel Lemoine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Morel</t>
-  </si>
-  <si>
     <t>Jade</t>
   </si>
   <si>
@@ -150,9 +131,6 @@
     <t>CHATEAUROUX</t>
   </si>
   <si>
-    <t xml:space="preserve"> Legrand</t>
-  </si>
-  <si>
     <t>Manon</t>
   </si>
   <si>
@@ -162,78 +140,42 @@
     <t>VI</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gauthier</t>
-  </si>
-  <si>
     <t>Hugo</t>
   </si>
   <si>
     <t>chm des marais</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chevalier</t>
-  </si>
-  <si>
     <t>Ethan</t>
   </si>
   <si>
     <t>rue louis destouches</t>
   </si>
   <si>
-    <t xml:space="preserve"> Robin</t>
-  </si>
-  <si>
     <t>Maël</t>
   </si>
   <si>
     <t>rue des battes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Léna</t>
-  </si>
-  <si>
     <t>rue de l egalité</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lefebvre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Noah</t>
-  </si>
-  <si>
     <t>89,rue du clou</t>
   </si>
   <si>
     <t>Déols</t>
   </si>
   <si>
-    <t xml:space="preserve"> Henry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eva</t>
-  </si>
-  <si>
     <t>rte d issoudin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dumont</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
     <t>chemin de la concorde</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jean-Michel</t>
-  </si>
-  <si>
     <t>rue des croix</t>
   </si>
   <si>
@@ -246,18 +188,12 @@
     <t>rue de robinsson</t>
   </si>
   <si>
-    <t xml:space="preserve"> Muller</t>
-  </si>
-  <si>
     <t>Valentin</t>
   </si>
   <si>
     <t>rue catiche</t>
   </si>
   <si>
-    <t xml:space="preserve"> Girard</t>
-  </si>
-  <si>
     <t>Matthieu</t>
   </si>
   <si>
@@ -270,33 +206,18 @@
     <t>II</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bertrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nadia</t>
-  </si>
-  <si>
     <t>rue de la bievre</t>
   </si>
   <si>
     <t>VILLEDIEU SUR INDRE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adrien</t>
-  </si>
-  <si>
     <t>21,av du pont neuf</t>
   </si>
   <si>
     <t>Rosnay</t>
   </si>
   <si>
-    <t xml:space="preserve"> Martinez</t>
-  </si>
-  <si>
     <t>Anne-marie</t>
   </si>
   <si>
@@ -309,60 +230,33 @@
     <t>Garcia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Morgane</t>
-  </si>
-  <si>
     <t>87 rue de la catiche</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bonnet</t>
-  </si>
-  <si>
     <t>Enzo</t>
   </si>
   <si>
     <t>123,rue de la poste</t>
   </si>
   <si>
-    <t>tours</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oceane</t>
-  </si>
-  <si>
     <t>av, de tours</t>
   </si>
   <si>
-    <t>robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agnes</t>
-  </si>
-  <si>
     <t xml:space="preserve">  12, rue des fontaines</t>
   </si>
   <si>
-    <t>mercier</t>
-  </si>
-  <si>
     <t>Loïc</t>
   </si>
   <si>
     <t>52,rue louis lumiere</t>
   </si>
   <si>
-    <t>chevalier</t>
-  </si>
-  <si>
     <t>Rémi</t>
   </si>
   <si>
     <t>36,av de tours</t>
   </si>
   <si>
-    <t>garnier</t>
-  </si>
-  <si>
     <t>Laure</t>
   </si>
   <si>
@@ -372,57 +266,36 @@
     <t>Perrin</t>
   </si>
   <si>
-    <t>LAYANA</t>
-  </si>
-  <si>
     <t>69, rue neuve</t>
   </si>
   <si>
     <t>issoudun</t>
   </si>
   <si>
-    <t>forato</t>
-  </si>
-  <si>
-    <t>CAMILLE</t>
-  </si>
-  <si>
     <t>45,rue berciou</t>
   </si>
   <si>
     <t xml:space="preserve">Roussel </t>
   </si>
   <si>
-    <t>HUGO</t>
-  </si>
-  <si>
     <t>25,rue brossollette</t>
   </si>
   <si>
     <t>Noel</t>
   </si>
   <si>
-    <t>SOHAN</t>
-  </si>
-  <si>
     <t>14,rue dadrault</t>
   </si>
   <si>
     <t>Dufour</t>
   </si>
   <si>
-    <t>ALIX</t>
-  </si>
-  <si>
     <t>01,av du 8 mai</t>
   </si>
   <si>
     <t>Brun</t>
   </si>
   <si>
-    <t>INES</t>
-  </si>
-  <si>
     <t>222,rue des guedons</t>
   </si>
   <si>
@@ -432,144 +305,96 @@
     <t>Blanchard</t>
   </si>
   <si>
-    <t>LINA</t>
-  </si>
-  <si>
     <t>12,rue du general de gualle</t>
   </si>
   <si>
     <t>Joly</t>
   </si>
   <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
     <t>45,rue du 4 aout</t>
   </si>
   <si>
     <t>Brunet</t>
   </si>
   <si>
-    <t>JEANNE</t>
-  </si>
-  <si>
     <t>boulvard stalingrad</t>
   </si>
   <si>
     <t>Schmitt</t>
   </si>
   <si>
-    <t>ELLIOT</t>
-  </si>
-  <si>
     <t>87 av du 8 mai</t>
   </si>
   <si>
     <t>Roy</t>
   </si>
   <si>
-    <t>NAEL</t>
-  </si>
-  <si>
     <t>02,rue grande st paterne</t>
   </si>
   <si>
     <t>Colin</t>
   </si>
   <si>
-    <t>SAYAN</t>
-  </si>
-  <si>
     <t>98,rue de la greletterie</t>
   </si>
   <si>
     <t>Roche</t>
   </si>
   <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
     <t>45,rte de st aubain</t>
   </si>
   <si>
     <t>Vidal</t>
   </si>
   <si>
-    <t>TRISTAN</t>
-  </si>
-  <si>
     <t>78,rue francois villon</t>
   </si>
   <si>
     <t>Caron</t>
   </si>
   <si>
-    <t>JULIEN</t>
-  </si>
-  <si>
     <t>12,rue du chantejot</t>
   </si>
   <si>
     <t>Fabre</t>
   </si>
   <si>
-    <t>CLARA</t>
-  </si>
-  <si>
     <t>142,rte de levroux</t>
   </si>
   <si>
     <t>Rey</t>
   </si>
   <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
     <t>chemin de rouache</t>
   </si>
   <si>
     <t xml:space="preserve">Payet </t>
   </si>
   <si>
-    <t>FREDERIQUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 rue lucien coupet </t>
   </si>
   <si>
     <t>Leclercq</t>
   </si>
   <si>
-    <t>AXEL</t>
-  </si>
-  <si>
     <t>chemin des coteaux</t>
   </si>
   <si>
     <t>Guillot</t>
   </si>
   <si>
-    <t>ALIENOR</t>
-  </si>
-  <si>
     <t>45 av de chineaut</t>
   </si>
   <si>
     <t>Moulin</t>
   </si>
   <si>
-    <t>ROMANE</t>
-  </si>
-  <si>
     <t>30,rue de montbeliar</t>
   </si>
   <si>
     <t>Deschamps</t>
   </si>
   <si>
-    <t>ADOLF</t>
-  </si>
-  <si>
     <t>08,rue de montelimar</t>
   </si>
   <si>
@@ -582,72 +407,48 @@
     <t>Prevost</t>
   </si>
   <si>
-    <t>WAEL</t>
-  </si>
-  <si>
     <t>89,boulvard marx dormoy</t>
   </si>
   <si>
     <t>Schneider</t>
   </si>
   <si>
-    <t>ALICIA</t>
-  </si>
-  <si>
     <t>36,rue de l amandier</t>
   </si>
   <si>
     <t xml:space="preserve"> Leger</t>
   </si>
   <si>
-    <t>MAXIME</t>
-  </si>
-  <si>
     <t>15 avenue de paris</t>
   </si>
   <si>
     <t xml:space="preserve">Breton </t>
   </si>
   <si>
-    <t>CHLOE</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 rue des ecoles </t>
   </si>
   <si>
     <t>Remy</t>
   </si>
   <si>
-    <t>AUDREY</t>
-  </si>
-  <si>
     <t>48 rue du 14 juillet</t>
   </si>
   <si>
     <t>Lévêque</t>
   </si>
   <si>
-    <t>NINO</t>
-  </si>
-  <si>
     <t>01 rue des noues chaudes</t>
   </si>
   <si>
     <t>Hamon</t>
   </si>
   <si>
-    <t>AINHOA</t>
-  </si>
-  <si>
     <t>56 rue george brassens</t>
   </si>
   <si>
     <t>Hoarau</t>
   </si>
   <si>
-    <t>DAVID</t>
-  </si>
-  <si>
     <t>10rue rené char</t>
   </si>
   <si>
@@ -673,12 +474,201 @@
   </si>
   <si>
     <t>key cp</t>
+  </si>
+  <si>
+    <t>34 av Charles de Gaulle</t>
+  </si>
+  <si>
+    <t>Lubéra</t>
+  </si>
+  <si>
+    <t>Fruchon</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Morel</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>Chevalier</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Dumont</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>Girard</t>
+  </si>
+  <si>
+    <t>Bertrand</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Bonnet</t>
+  </si>
+  <si>
+    <t>Tours</t>
+  </si>
+  <si>
+    <t>Mercier</t>
+  </si>
+  <si>
+    <t>Garnier</t>
+  </si>
+  <si>
+    <t>Forato</t>
+  </si>
+  <si>
+    <t>Benoit</t>
+  </si>
+  <si>
+    <t>Léna</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Jean-Michel</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Morgane</t>
+  </si>
+  <si>
+    <t>Oceane</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>Layana</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Sohan</t>
+  </si>
+  <si>
+    <t>Alix</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Nael</t>
+  </si>
+  <si>
+    <t>Sayan</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Frederique</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Alienor</t>
+  </si>
+  <si>
+    <t>Romane</t>
+  </si>
+  <si>
+    <t>Bioune</t>
+  </si>
+  <si>
+    <t>Wael</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>Ainhoa</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,16 +732,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,36 +1034,36 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,1690 +1073,1691 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>32564</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E2" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <v>254080700</v>
       </c>
-      <c r="F2" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="8">
+        <v>34086</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>34086</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
         <v>254086912</v>
       </c>
-      <c r="F3" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="7">
+        <v>32995</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>32995</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>254075620</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="8">
+        <v>33822</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>254075620</v>
-      </c>
-      <c r="F4" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="5">
+        <v>36130</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>254342017</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7">
-        <v>33822</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6">
-        <v>254342017</v>
-      </c>
-      <c r="F5" s="6">
-        <v>36130</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>254240102</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
-        <v>29131</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="8">
+        <v>30300</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>254240102</v>
-      </c>
-      <c r="F6" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7">
-        <v>30300</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
         <v>254071213</v>
       </c>
-      <c r="F7" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
+      <c r="H7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>35796</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>254083910</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3">
-        <v>35796</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="8">
+        <v>32121</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2">
-        <v>254083910</v>
-      </c>
-      <c r="F8" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7">
-        <v>32121</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
         <v>254091113</v>
       </c>
-      <c r="F9" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7">
+        <v>31353</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>254020113</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="8">
+        <v>36145</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3">
-        <v>31353</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>254020113</v>
-      </c>
-      <c r="F10" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E11" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>254086695</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7">
-        <v>36145</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6">
-        <v>254086695</v>
-      </c>
-      <c r="F11" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>32126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>254086661</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30975</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3">
-        <v>32126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2">
-        <v>254086661</v>
-      </c>
-      <c r="F12" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7">
-        <v>30975</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="G13" s="5">
         <v>254073640</v>
       </c>
-      <c r="F13" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>8</v>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7">
         <v>32278</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
         <v>254221012</v>
       </c>
-      <c r="F14" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8">
+        <v>34855</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>254231230</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7">
-        <v>34855</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="6">
-        <v>254231230</v>
-      </c>
-      <c r="F15" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7">
         <v>36094</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
         <v>254482013</v>
       </c>
-      <c r="F16" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8">
         <v>32671</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
         <v>254258763</v>
       </c>
-      <c r="F17" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>8</v>
+      <c r="H17" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3">
+        <v>175</v>
+      </c>
+      <c r="C18" s="7">
         <v>31661</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
         <v>254071536</v>
       </c>
-      <c r="F18" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="A19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="8">
         <v>34653</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5">
+        <v>36130</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5">
         <v>254889632</v>
       </c>
-      <c r="F19" s="6">
-        <v>36130</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>8</v>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3">
+        <v>177</v>
+      </c>
+      <c r="C20" s="7">
         <v>32076</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2">
+        <v>36130</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2">
         <v>256122300</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8">
+        <v>34824</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5">
         <v>36130</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="7">
-        <v>34824</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5">
         <v>256891241</v>
       </c>
-      <c r="F21" s="6">
-        <v>36130</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>4</v>
+      <c r="H21" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3">
+        <v>178</v>
+      </c>
+      <c r="C22" s="7">
         <v>31271</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2">
+        <v>36170</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="2">
         <v>256251214</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8">
+        <v>27508</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5">
         <v>36170</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="7">
-        <v>27508</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="F23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="5">
         <v>256120323</v>
       </c>
-      <c r="F23" s="6">
-        <v>36170</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>8</v>
+      <c r="H23" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="3">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7">
         <v>31363</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2">
+        <v>36170</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="2">
         <v>263458556</v>
       </c>
-      <c r="F24" s="2">
-        <v>36170</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="A25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8">
         <v>27724</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5">
+        <v>36300</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="5">
         <v>263895425</v>
       </c>
-      <c r="F25" s="6">
-        <v>36300</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>80</v>
+      <c r="H25" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3">
+        <v>179</v>
+      </c>
+      <c r="C26" s="7">
         <v>27903</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2">
+        <v>36320</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="2">
         <v>254859623</v>
       </c>
-      <c r="F26" s="2">
-        <v>36320</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="A27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="8">
         <v>26896</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5">
+        <v>36300</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="5">
         <v>241569874</v>
       </c>
-      <c r="F27" s="6">
-        <v>36300</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>4</v>
+      <c r="H27" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="3">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7">
         <v>28845</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2">
+        <v>36200</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2">
         <v>256941235</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="8">
+        <v>27437</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5">
         <v>36200</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="7">
-        <v>27437</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="F29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="5">
         <v>254123625</v>
       </c>
-      <c r="F29" s="6">
-        <v>36200</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>8</v>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="3">
+        <v>69</v>
+      </c>
+      <c r="C30" s="7">
         <v>31915</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2">
+        <v>36200</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="2">
         <v>254895623</v>
       </c>
-      <c r="F30" s="2">
-        <v>36200</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="A31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="8">
         <v>30950</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
         <v>254213201</v>
       </c>
-      <c r="F31" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>8</v>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="3">
+        <v>183</v>
+      </c>
+      <c r="C32" s="7">
         <v>27679</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
         <v>254122369</v>
       </c>
-      <c r="F32" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="A33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8">
         <v>34189</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
         <v>254633698</v>
       </c>
-      <c r="F33" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>8</v>
+      <c r="H33" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="3">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7">
         <v>27738</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
         <v>254875623</v>
       </c>
-      <c r="F34" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="A35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8">
         <v>27383</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
         <v>254636669</v>
       </c>
-      <c r="F35" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>8</v>
+      <c r="H35" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="3">
+        <v>184</v>
+      </c>
+      <c r="C36" s="7">
         <v>35930</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="2">
         <v>249525610</v>
       </c>
-      <c r="F36" s="2">
+      <c r="H36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="8">
+        <v>36519</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="5">
         <v>36100</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="7">
-        <v>36519</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="F37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="5">
         <v>245361287</v>
       </c>
-      <c r="F37" s="6">
-        <v>36100</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>8</v>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="3">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7">
         <v>27685</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="2">
         <v>254872356</v>
       </c>
-      <c r="F38" s="2">
-        <v>36100</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="8">
         <v>31917</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="D39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
         <v>248751269</v>
       </c>
-      <c r="F39" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>8</v>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="3">
+        <v>187</v>
+      </c>
+      <c r="C40" s="7">
         <v>28656</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="2">
         <v>254215496</v>
       </c>
-      <c r="F40" s="2">
-        <v>36100</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="8">
         <v>35320</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="5">
+        <v>36310</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="5">
         <v>254125496</v>
       </c>
-      <c r="F41" s="6">
-        <v>36310</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>4</v>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="3">
+        <v>189</v>
+      </c>
+      <c r="C42" s="7">
         <v>31697</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2">
+        <v>36200</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="2">
         <v>254362514</v>
       </c>
-      <c r="F42" s="2">
+      <c r="H42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="8">
+        <v>33800</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="5">
         <v>36200</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="7">
-        <v>33800</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="F43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="5">
         <v>254129753</v>
       </c>
-      <c r="F43" s="6">
-        <v>36200</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>4</v>
+      <c r="H43" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="3">
+        <v>190</v>
+      </c>
+      <c r="C44" s="7">
         <v>31173</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
         <v>254236745</v>
       </c>
-      <c r="F44" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="8">
+        <v>34700</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>254264852</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="7">
-        <v>34700</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="6">
-        <v>254264852</v>
-      </c>
-      <c r="F45" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="3">
+        <v>192</v>
+      </c>
+      <c r="C46" s="7">
         <v>36466</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="2">
         <v>254124972</v>
       </c>
-      <c r="F46" s="2">
+      <c r="H46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="8">
+        <v>31568</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="5">
         <v>36100</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="7">
-        <v>31568</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="F47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="5">
         <v>254235497</v>
       </c>
-      <c r="F47" s="6">
-        <v>36100</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>8</v>
+      <c r="H47" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="3">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7">
         <v>31234</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="2">
         <v>254105785</v>
       </c>
-      <c r="F48" s="2">
+      <c r="H48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="8">
+        <v>35961</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="5">
         <v>36100</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="7">
-        <v>35961</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="F49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="5">
         <v>254562348</v>
       </c>
-      <c r="F49" s="6">
-        <v>36100</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>8</v>
+      <c r="H49" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="3">
+        <v>196</v>
+      </c>
+      <c r="C50" s="7">
         <v>27624</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2">
+        <v>36100</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="2">
         <v>254452171</v>
       </c>
-      <c r="F50" s="2">
-        <v>36100</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="A51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="8">
         <v>32123</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
         <v>254215866</v>
       </c>
-      <c r="F51" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="3">
+        <v>198</v>
+      </c>
+      <c r="C52" s="7">
         <v>28834</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
         <v>254157930</v>
       </c>
-      <c r="F52" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="8">
         <v>31547</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5">
         <v>254128745</v>
       </c>
-      <c r="F53" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="3">
+        <v>200</v>
+      </c>
+      <c r="C54" s="7">
         <v>28102</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2">
         <v>254235689</v>
       </c>
-      <c r="F54" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="7">
+      <c r="A55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="8">
         <v>31204</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5">
         <v>254256974</v>
       </c>
-      <c r="F55" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>8</v>
+      <c r="H55" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="3">
+        <v>202</v>
+      </c>
+      <c r="C56" s="7">
         <v>27004</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
         <v>254125489</v>
       </c>
-      <c r="F56" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="7">
+      <c r="A57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="8">
         <v>31910</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5">
         <v>254238459</v>
       </c>
-      <c r="F57" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>8</v>
+      <c r="H57" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="3">
+        <v>192</v>
+      </c>
+      <c r="C58" s="7">
         <v>31096</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2">
         <v>254362474</v>
       </c>
-      <c r="F58" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="8">
+        <v>34479</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>254124587</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="7">
-        <v>34479</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="6">
-        <v>254124587</v>
-      </c>
-      <c r="F59" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="3">
+        <v>205</v>
+      </c>
+      <c r="C60" s="7">
         <v>35782</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2">
         <v>254568412</v>
       </c>
-      <c r="F60" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="7">
+      <c r="A61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="8">
         <v>30503</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5">
         <v>254361482</v>
       </c>
-      <c r="F61" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>8</v>
+      <c r="H61" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="3">
+        <v>207</v>
+      </c>
+      <c r="C62" s="7">
         <v>30019</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2">
         <v>254647158</v>
       </c>
-      <c r="F62" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="7">
+      <c r="A63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="8">
         <v>33104</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5">
         <v>254261478</v>
       </c>
-      <c r="F63" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="3">
+        <v>209</v>
+      </c>
+      <c r="C64" s="7">
         <v>31109</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2">
         <v>254235697</v>
       </c>
-      <c r="F64" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="7">
+      <c r="A65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="8">
         <v>28685</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="5">
+        <v>36000</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5">
         <v>254654014</v>
       </c>
-      <c r="F65" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>8</v>
+      <c r="H65" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="3">
+        <v>211</v>
+      </c>
+      <c r="C66" s="7">
         <v>28045</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2">
         <v>254362487</v>
       </c>
-      <c r="F66" s="2">
-        <v>36000</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>